--- a/ELISA_data/092518 IL17 ELISA Plate2.xlsx
+++ b/ELISA_data/092518 IL17 ELISA Plate2.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Hiutung Chu\Epoch Plate Reader\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="9435" windowHeight="6915"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="25480" windowHeight="14400" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="raw data" sheetId="1" r:id="rId1"/>
+    <sheet name="standards" sheetId="2" r:id="rId2"/>
+    <sheet name="samples" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="MethodPointer1">296411792</definedName>
     <definedName name="MethodPointer2">0</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="208">
   <si>
     <t>Software Version</t>
   </si>
@@ -527,13 +529,133 @@
   </si>
   <si>
     <t>H10</t>
+  </si>
+  <si>
+    <t>experimenter</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>agConc</t>
+  </si>
+  <si>
+    <t>LEB</t>
+  </si>
+  <si>
+    <t>OD450</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>sampleName</t>
+  </si>
+  <si>
+    <t>dilutionFactor</t>
+  </si>
+  <si>
+    <t>cytokine</t>
+  </si>
+  <si>
+    <t>B12.a, LNT, HK</t>
+  </si>
+  <si>
+    <t>B12.b, LNT, HK</t>
+  </si>
+  <si>
+    <t>B12.a, 3SL, HK</t>
+  </si>
+  <si>
+    <t>B12.b, 3SL, HK</t>
+  </si>
+  <si>
+    <t>B12.a, 6SL, HK</t>
+  </si>
+  <si>
+    <t>B12.b, 6SL, HK</t>
+  </si>
+  <si>
+    <t>B12.a, pHMO, HK</t>
+  </si>
+  <si>
+    <t>B12.b, pHMO, HK</t>
+  </si>
+  <si>
+    <t>B12.a, Lac, HK</t>
+  </si>
+  <si>
+    <t>B12.b, Lac, HK</t>
+  </si>
+  <si>
+    <t>B12.a, X, HK</t>
+  </si>
+  <si>
+    <t>B12.b, X, HK</t>
+  </si>
+  <si>
+    <t>Medφ, 1, HK</t>
+  </si>
+  <si>
+    <t>Medφ, 2, HK</t>
+  </si>
+  <si>
+    <t>Medφ, 3, HK</t>
+  </si>
+  <si>
+    <t>Sia10, BHI</t>
+  </si>
+  <si>
+    <t>Sia25, BHI</t>
+  </si>
+  <si>
+    <t>Sia30, BHI</t>
+  </si>
+  <si>
+    <t>Sia31, BHI</t>
+  </si>
+  <si>
+    <t>Sia32, BHI</t>
+  </si>
+  <si>
+    <t>Sia34, BHI</t>
+  </si>
+  <si>
+    <t>Sia35, BHI</t>
+  </si>
+  <si>
+    <t>BHI</t>
+  </si>
+  <si>
+    <t>Sia31, AC, 2</t>
+  </si>
+  <si>
+    <t>Sia32, AC, 1</t>
+  </si>
+  <si>
+    <t>Sia32, AC, 2</t>
+  </si>
+  <si>
+    <t>Sia34, AC, 2</t>
+  </si>
+  <si>
+    <t>Sia35, AC, 1</t>
+  </si>
+  <si>
+    <t>Sia35, AC, 2</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>IL17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -563,6 +685,18 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="14">
@@ -669,8 +803,84 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -728,7 +938,83 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="77">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -787,7 +1073,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -822,7 +1108,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -999,7 +1285,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1009,17 +1295,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1035,7 +1321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1043,7 +1329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1051,7 +1337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1059,7 +1345,7 @@
         <v>43368</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1067,7 +1353,7 @@
         <v>0.6749074074074074</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1075,7 +1361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1083,7 +1369,7 @@
         <v>17091420</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1091,13 +1377,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1105,12 +1391,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1118,28 +1404,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="B17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="B18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="B19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="B23" s="5"/>
       <c r="C23" s="6">
         <v>1</v>
@@ -1178,7 +1464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="B24" s="6" t="s">
         <v>25</v>
       </c>
@@ -1222,7 +1508,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="B25" s="6" t="s">
         <v>39</v>
       </c>
@@ -1266,7 +1552,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="B26" s="6" t="s">
         <v>40</v>
       </c>
@@ -1306,7 +1592,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="B27" s="6" t="s">
         <v>51</v>
       </c>
@@ -1346,7 +1632,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="B28" s="6" t="s">
         <v>52</v>
       </c>
@@ -1386,7 +1672,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="B29" s="6" t="s">
         <v>63</v>
       </c>
@@ -1426,7 +1712,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="B30" s="6" t="s">
         <v>64</v>
       </c>
@@ -1466,7 +1752,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="B31" s="6" t="s">
         <v>75</v>
       </c>
@@ -1506,13 +1792,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15">
       <c r="A33" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -1520,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15">
       <c r="B36" s="5"/>
       <c r="C36" s="6">
         <v>1</v>
@@ -1559,7 +1845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15">
       <c r="B37" s="6" t="s">
         <v>25</v>
       </c>
@@ -1603,7 +1889,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15">
       <c r="B38" s="6" t="s">
         <v>39</v>
       </c>
@@ -1647,7 +1933,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="B39" s="6" t="s">
         <v>40</v>
       </c>
@@ -1687,7 +1973,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="B40" s="6" t="s">
         <v>51</v>
       </c>
@@ -1727,7 +2013,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15">
       <c r="B41" s="6" t="s">
         <v>52</v>
       </c>
@@ -1767,7 +2053,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="B42" s="6" t="s">
         <v>63</v>
       </c>
@@ -1807,7 +2093,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15">
       <c r="B43" s="6" t="s">
         <v>64</v>
       </c>
@@ -1847,7 +2133,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15">
       <c r="B44" s="6" t="s">
         <v>75</v>
       </c>
@@ -1887,7 +2173,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15">
       <c r="A46" s="6" t="s">
         <v>38</v>
       </c>
@@ -1913,7 +2199,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15">
       <c r="A47" s="19" t="s">
         <v>26</v>
       </c>
@@ -1937,7 +2223,7 @@
         <v>5.8620000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19" t="s">
@@ -1951,7 +2237,7 @@
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="19" t="s">
         <v>27</v>
       </c>
@@ -1975,7 +2261,7 @@
         <v>3.887</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19" t="s">
@@ -1989,7 +2275,7 @@
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="19" t="s">
         <v>28</v>
       </c>
@@ -2013,7 +2299,7 @@
         <v>2.1480000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19" t="s">
@@ -2027,7 +2313,7 @@
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="19" t="s">
         <v>29</v>
       </c>
@@ -2051,7 +2337,7 @@
         <v>35.503999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19" t="s">
@@ -2065,7 +2351,7 @@
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="19" t="s">
         <v>30</v>
       </c>
@@ -2089,7 +2375,7 @@
         <v>1.7010000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19" t="s">
@@ -2103,7 +2389,7 @@
       <c r="G56" s="19"/>
       <c r="H56" s="19"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="19" t="s">
         <v>31</v>
       </c>
@@ -2127,7 +2413,7 @@
         <v>3.1120000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19" t="s">
@@ -2141,7 +2427,7 @@
       <c r="G58" s="19"/>
       <c r="H58" s="19"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="19" t="s">
         <v>32</v>
       </c>
@@ -2165,7 +2451,7 @@
         <v>2.2810000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19" t="s">
@@ -2179,7 +2465,7 @@
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="19" t="s">
         <v>33</v>
       </c>
@@ -2203,7 +2489,7 @@
         <v>2.335</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="19"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19" t="s">
@@ -2217,7 +2503,7 @@
       <c r="G62" s="19"/>
       <c r="H62" s="19"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="19" t="s">
         <v>34</v>
       </c>
@@ -2241,7 +2527,7 @@
         <v>1.0649999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19" t="s">
@@ -2255,7 +2541,7 @@
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" s="19" t="s">
         <v>35</v>
       </c>
@@ -2279,7 +2565,7 @@
         <v>13.257999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" s="19"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19" t="s">
@@ -2293,7 +2579,7 @@
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" s="19" t="s">
         <v>36</v>
       </c>
@@ -2317,7 +2603,7 @@
         <v>5.6429999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19" t="s">
@@ -2331,7 +2617,7 @@
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="19" t="s">
         <v>37</v>
       </c>
@@ -2355,7 +2641,7 @@
         <v>1.708</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19" t="s">
@@ -2369,7 +2655,7 @@
       <c r="G70" s="19"/>
       <c r="H70" s="19"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" s="19" t="s">
         <v>41</v>
       </c>
@@ -2393,7 +2679,7 @@
         <v>27.885000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19" t="s">
@@ -2407,7 +2693,7 @@
       <c r="G72" s="19"/>
       <c r="H72" s="19"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" s="19" t="s">
         <v>42</v>
       </c>
@@ -2431,7 +2717,7 @@
         <v>0.73799999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19" t="s">
@@ -2445,7 +2731,7 @@
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" s="19" t="s">
         <v>43</v>
       </c>
@@ -2469,7 +2755,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19" t="s">
@@ -2483,7 +2769,7 @@
       <c r="G76" s="19"/>
       <c r="H76" s="19"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" s="19" t="s">
         <v>44</v>
       </c>
@@ -2507,7 +2793,7 @@
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19" t="s">
@@ -2521,7 +2807,7 @@
       <c r="G78" s="19"/>
       <c r="H78" s="19"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" s="19" t="s">
         <v>45</v>
       </c>
@@ -2545,7 +2831,7 @@
         <v>1.1180000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19" t="s">
@@ -2559,7 +2845,7 @@
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" s="19" t="s">
         <v>46</v>
       </c>
@@ -2583,7 +2869,7 @@
         <v>4.5309999999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" s="19"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19" t="s">
@@ -2597,7 +2883,7 @@
       <c r="G82" s="19"/>
       <c r="H82" s="19"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" s="19" t="s">
         <v>47</v>
       </c>
@@ -2621,7 +2907,7 @@
         <v>8.8070000000000004</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19" t="s">
@@ -2635,7 +2921,7 @@
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85" s="19" t="s">
         <v>48</v>
       </c>
@@ -2659,7 +2945,7 @@
         <v>3.3170000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19" t="s">
@@ -2673,7 +2959,7 @@
       <c r="G86" s="19"/>
       <c r="H86" s="19"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" s="19" t="s">
         <v>49</v>
       </c>
@@ -2697,7 +2983,7 @@
         <v>1.129</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" s="19"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19" t="s">
@@ -2711,7 +2997,7 @@
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" s="19" t="s">
         <v>50</v>
       </c>
@@ -2735,7 +3021,7 @@
         <v>1.506</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19" t="s">
@@ -2749,7 +3035,7 @@
       <c r="G90" s="19"/>
       <c r="H90" s="19"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91" s="19" t="s">
         <v>53</v>
       </c>
@@ -2773,7 +3059,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="A92" s="19"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19" t="s">
@@ -2787,7 +3073,7 @@
       <c r="G92" s="19"/>
       <c r="H92" s="19"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93" s="19" t="s">
         <v>54</v>
       </c>
@@ -2811,7 +3097,7 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" s="19"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19" t="s">
@@ -2825,7 +3111,7 @@
       <c r="G94" s="19"/>
       <c r="H94" s="19"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95" s="19" t="s">
         <v>55</v>
       </c>
@@ -2849,7 +3135,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96" s="19"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19" t="s">
@@ -2863,7 +3149,7 @@
       <c r="G96" s="19"/>
       <c r="H96" s="19"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" s="19" t="s">
         <v>56</v>
       </c>
@@ -2887,7 +3173,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" s="19"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19" t="s">
@@ -2901,7 +3187,7 @@
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" s="19" t="s">
         <v>57</v>
       </c>
@@ -2925,7 +3211,7 @@
         <v>11.365</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19" t="s">
@@ -2939,7 +3225,7 @@
       <c r="G100" s="19"/>
       <c r="H100" s="19"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="A101" s="19" t="s">
         <v>58</v>
       </c>
@@ -2963,7 +3249,7 @@
         <v>1.391</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="A102" s="19"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19" t="s">
@@ -2977,7 +3263,7 @@
       <c r="G102" s="19"/>
       <c r="H102" s="19"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103" s="19" t="s">
         <v>59</v>
       </c>
@@ -3001,7 +3287,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104" s="19"/>
       <c r="B104" s="19"/>
       <c r="C104" s="19" t="s">
@@ -3015,7 +3301,7 @@
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105" s="19" t="s">
         <v>60</v>
       </c>
@@ -3039,7 +3325,7 @@
         <v>0.59799999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106" s="19"/>
       <c r="B106" s="19"/>
       <c r="C106" s="19" t="s">
@@ -3053,7 +3339,7 @@
       <c r="G106" s="19"/>
       <c r="H106" s="19"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" s="19" t="s">
         <v>61</v>
       </c>
@@ -3077,7 +3363,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" s="19"/>
       <c r="B108" s="19"/>
       <c r="C108" s="19" t="s">
@@ -3091,7 +3377,7 @@
       <c r="G108" s="19"/>
       <c r="H108" s="19"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" s="19" t="s">
         <v>62</v>
       </c>
@@ -3115,7 +3401,7 @@
         <v>0.63800000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="A110" s="19"/>
       <c r="B110" s="19"/>
       <c r="C110" s="19" t="s">
@@ -3129,7 +3415,7 @@
       <c r="G110" s="19"/>
       <c r="H110" s="19"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111" s="19" t="s">
         <v>65</v>
       </c>
@@ -3153,7 +3439,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112" s="19"/>
       <c r="B112" s="19"/>
       <c r="C112" s="19" t="s">
@@ -3167,7 +3453,7 @@
       <c r="G112" s="19"/>
       <c r="H112" s="19"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="A113" s="19" t="s">
         <v>66</v>
       </c>
@@ -3191,7 +3477,7 @@
         <v>6.6470000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114" s="19"/>
       <c r="B114" s="19"/>
       <c r="C114" s="19" t="s">
@@ -3205,7 +3491,7 @@
       <c r="G114" s="19"/>
       <c r="H114" s="19"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115" s="19" t="s">
         <v>67</v>
       </c>
@@ -3229,7 +3515,7 @@
         <v>3.0910000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="A116" s="19"/>
       <c r="B116" s="19"/>
       <c r="C116" s="19" t="s">
@@ -3243,7 +3529,7 @@
       <c r="G116" s="19"/>
       <c r="H116" s="19"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117" s="19" t="s">
         <v>68</v>
       </c>
@@ -3267,7 +3553,7 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118" s="19"/>
       <c r="B118" s="19"/>
       <c r="C118" s="19" t="s">
@@ -3281,7 +3567,7 @@
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8">
       <c r="A119" s="19" t="s">
         <v>69</v>
       </c>
@@ -3305,7 +3591,7 @@
         <v>25.876000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8">
       <c r="A120" s="19"/>
       <c r="B120" s="19"/>
       <c r="C120" s="19" t="s">
@@ -3319,7 +3605,7 @@
       <c r="G120" s="19"/>
       <c r="H120" s="19"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="A121" s="19" t="s">
         <v>70</v>
       </c>
@@ -3343,7 +3629,7 @@
         <v>5.1230000000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="A122" s="19"/>
       <c r="B122" s="19"/>
       <c r="C122" s="19" t="s">
@@ -3357,7 +3643,7 @@
       <c r="G122" s="19"/>
       <c r="H122" s="19"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123" s="19" t="s">
         <v>71</v>
       </c>
@@ -3381,7 +3667,7 @@
         <v>4.6059999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124" s="19"/>
       <c r="B124" s="19"/>
       <c r="C124" s="19" t="s">
@@ -3395,7 +3681,7 @@
       <c r="G124" s="19"/>
       <c r="H124" s="19"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" s="19" t="s">
         <v>72</v>
       </c>
@@ -3419,7 +3705,7 @@
         <v>3.1930000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126" s="19"/>
       <c r="B126" s="19"/>
       <c r="C126" s="19" t="s">
@@ -3433,7 +3719,7 @@
       <c r="G126" s="19"/>
       <c r="H126" s="19"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" s="19" t="s">
         <v>73</v>
       </c>
@@ -3457,7 +3743,7 @@
         <v>1.9219999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8">
       <c r="A128" s="19"/>
       <c r="B128" s="19"/>
       <c r="C128" s="19" t="s">
@@ -3471,7 +3757,7 @@
       <c r="G128" s="19"/>
       <c r="H128" s="19"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8">
       <c r="A129" s="19" t="s">
         <v>74</v>
       </c>
@@ -3495,7 +3781,7 @@
         <v>3.4540000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8">
       <c r="A130" s="19"/>
       <c r="B130" s="19"/>
       <c r="C130" s="19" t="s">
@@ -3512,7 +3798,1829 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="19">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="19">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="19">
+        <v>0.315</v>
+      </c>
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D25" si="0">D2/2</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="19">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="19">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="19">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="19">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="19">
+        <v>0.223</v>
+      </c>
+      <c r="B9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="19">
+        <v>0.107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="19">
+        <v>0.109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>7.8125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="19">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>7.8125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="19">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3.90625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="19">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>3.90625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="19">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1.953125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="B17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1.953125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="19">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.9765625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="B19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.9765625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="19">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.48828125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="19">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.48828125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="19">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.244140625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="19">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.244140625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="19">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.1220703125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="19">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.1220703125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="19">
+        <v>0.186</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D2">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="19">
+        <v>0.125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D3">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="19">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="19">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="19">
+        <v>0.113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D6">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="19">
+        <v>0.115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D7">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="19">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="B8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D8">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D9">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="19">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D11">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="19">
+        <v>0.151</v>
+      </c>
+      <c r="B12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D12">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="19">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D13">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="19">
+        <v>0.161</v>
+      </c>
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D14">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="19">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="B15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D15">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="19">
+        <v>0.107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D16">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="19">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="B17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D17">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="19">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="B18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D18">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="19">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="B19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D19">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="19">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="B20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="19">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="B21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="19">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="B22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D22">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="19">
+        <v>0.223</v>
+      </c>
+      <c r="B23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D23">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="19">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="B24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D24">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="19">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="B25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D25">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="19">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D26">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="19">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D27">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="19">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D28">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="19">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D29">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="19">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="B30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D30">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="19">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D31">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="19">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="B32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D32">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>192</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="19">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D33">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>192</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="19">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D34">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="19">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D35">
+        <v>47</v>
+      </c>
+      <c r="E35" t="s">
+        <v>193</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="19">
+        <v>0.106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D36">
+        <v>48</v>
+      </c>
+      <c r="E36" t="s">
+        <v>194</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="19">
+        <v>0.107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D37">
+        <v>48</v>
+      </c>
+      <c r="E37" t="s">
+        <v>194</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="19">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D38">
+        <v>49</v>
+      </c>
+      <c r="E38" t="s">
+        <v>195</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="19">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D39">
+        <v>49</v>
+      </c>
+      <c r="E39" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="19">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D40">
+        <v>50</v>
+      </c>
+      <c r="E40" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="19">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D41">
+        <v>50</v>
+      </c>
+      <c r="E41" t="s">
+        <v>196</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="19">
+        <v>0.123</v>
+      </c>
+      <c r="B42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D42">
+        <v>51</v>
+      </c>
+      <c r="E42" t="s">
+        <v>197</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="19">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="B43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D43">
+        <v>51</v>
+      </c>
+      <c r="E43" t="s">
+        <v>197</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="19">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="B44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D44">
+        <v>52</v>
+      </c>
+      <c r="E44" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="19">
+        <v>0.114</v>
+      </c>
+      <c r="B45" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D45">
+        <v>52</v>
+      </c>
+      <c r="E45" t="s">
+        <v>198</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="19">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D46">
+        <v>53</v>
+      </c>
+      <c r="E46" t="s">
+        <v>199</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="19">
+        <v>9.4E-2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D47">
+        <v>53</v>
+      </c>
+      <c r="E47" t="s">
+        <v>199</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D48">
+        <v>54</v>
+      </c>
+      <c r="E48" t="s">
+        <v>200</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="19">
+        <v>0.106</v>
+      </c>
+      <c r="B49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D49">
+        <v>54</v>
+      </c>
+      <c r="E49" t="s">
+        <v>200</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="19">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="B50" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D50">
+        <v>55</v>
+      </c>
+      <c r="E50" t="s">
+        <v>201</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="19">
+        <v>0.214</v>
+      </c>
+      <c r="B51" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D51">
+        <v>55</v>
+      </c>
+      <c r="E51" t="s">
+        <v>201</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="19">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D52">
+        <v>56</v>
+      </c>
+      <c r="E52" t="s">
+        <v>202</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="19">
+        <v>0.09</v>
+      </c>
+      <c r="B53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D53">
+        <v>56</v>
+      </c>
+      <c r="E53" t="s">
+        <v>202</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="19">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="B54" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D54">
+        <v>57</v>
+      </c>
+      <c r="E54" t="s">
+        <v>203</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="19">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="B55" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D55">
+        <v>57</v>
+      </c>
+      <c r="E55" t="s">
+        <v>203</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="19">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D56">
+        <v>58</v>
+      </c>
+      <c r="E56" t="s">
+        <v>204</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="19">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="B57" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D57">
+        <v>58</v>
+      </c>
+      <c r="E57" t="s">
+        <v>204</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="19">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D58">
+        <v>59</v>
+      </c>
+      <c r="E58" t="s">
+        <v>205</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="19">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D59">
+        <v>59</v>
+      </c>
+      <c r="E59" t="s">
+        <v>205</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="19">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="B60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D60">
+        <v>60</v>
+      </c>
+      <c r="E60" t="s">
+        <v>206</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43368</v>
+      </c>
+      <c r="D61">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>206</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>